--- a/V_I.xlsx
+++ b/V_I.xlsx
@@ -9,29 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="622" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="622" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="12" r:id="rId1"/>
     <sheet name="prod checks" sheetId="3" r:id="rId2"/>
     <sheet name="know" sheetId="13" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="37" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId5"/>
-    <sheet name="linux" sheetId="32" r:id="rId6"/>
-    <sheet name="db" sheetId="5" r:id="rId7"/>
-    <sheet name="git" sheetId="36" r:id="rId8"/>
-    <sheet name="intllij" sheetId="31" r:id="rId9"/>
-    <sheet name="t" sheetId="7" r:id="rId10"/>
-    <sheet name="stock" sheetId="35" r:id="rId11"/>
-    <sheet name="performance" sheetId="16" r:id="rId12"/>
-    <sheet name="python" sheetId="9" r:id="rId13"/>
-    <sheet name="sms" sheetId="10" r:id="rId14"/>
-    <sheet name="Sheet11" sheetId="15" r:id="rId15"/>
-    <sheet name="docker" sheetId="30" r:id="rId16"/>
+    <sheet name="linux" sheetId="32" r:id="rId4"/>
+    <sheet name="db" sheetId="5" r:id="rId5"/>
+    <sheet name="git" sheetId="36" r:id="rId6"/>
+    <sheet name="intllij" sheetId="31" r:id="rId7"/>
+    <sheet name="t" sheetId="7" r:id="rId8"/>
+    <sheet name="stock" sheetId="35" r:id="rId9"/>
+    <sheet name="performance" sheetId="16" r:id="rId10"/>
+    <sheet name="python" sheetId="9" r:id="rId11"/>
+    <sheet name="sms" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="15" r:id="rId13"/>
+    <sheet name="docker" sheetId="30" r:id="rId14"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$H$2:$H$51</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="1709">
   <si>
     <t>)</t>
   </si>
@@ -30640,276 +30635,6 @@
     <t>netsh wlan connect name="MORUSER"</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1011182292 1025831083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1001063585 on</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> from 1015750369 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transd from 1010345991 </t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>1001585412	"116"</t>
-  </si>
-  <si>
-    <t>1001692094	"25"</t>
-  </si>
-  <si>
-    <t>1008187998	"9"</t>
-  </si>
-  <si>
-    <t>1014648621	"7"</t>
-  </si>
-  <si>
-    <t>1021474722	"153"</t>
-  </si>
-  <si>
-    <t>1021815686	"131"</t>
-  </si>
-  <si>
-    <t>1024233838	"12"</t>
-  </si>
-  <si>
-    <t>1024608210	"1"</t>
-  </si>
-  <si>
-    <t>1025749118	"50"</t>
-  </si>
-  <si>
-    <t>1025808244	"3"</t>
-  </si>
-  <si>
-    <t>1025831083	"6"</t>
-  </si>
-  <si>
-    <t>1025902366	"3"</t>
-  </si>
-  <si>
-    <t>1025902583	"3"</t>
-  </si>
-  <si>
-    <t>select distinct accountnumber, COALESCE(count(1),0) from promotionservicev2schema.customer_entitlements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">where accountnumber in </t>
-  </si>
-  <si>
-    <t>('1001692094'	,</t>
-  </si>
-  <si>
-    <t>'1025808244'	,</t>
-  </si>
-  <si>
-    <t>'1021318860'	,</t>
-  </si>
-  <si>
-    <t>'1026011077'	,</t>
-  </si>
-  <si>
-    <t>'1025902366'	,</t>
-  </si>
-  <si>
-    <t>'1021056552'	,</t>
-  </si>
-  <si>
-    <t>'1024608210'	,</t>
-  </si>
-  <si>
-    <t>'1025831083'	,</t>
-  </si>
-  <si>
-    <t>'1021815686'	,</t>
-  </si>
-  <si>
-    <t>'1026000079'	,</t>
-  </si>
-  <si>
-    <t>'1001585412'	,</t>
-  </si>
-  <si>
-    <t>'1014648621'	,</t>
-  </si>
-  <si>
-    <t>'1025976348'	,</t>
-  </si>
-  <si>
-    <t>'1025997086'	,</t>
-  </si>
-  <si>
-    <t>'1025749118'	,</t>
-  </si>
-  <si>
-    <t>'1021474722'	,</t>
-  </si>
-  <si>
-    <t>'1024609086'	,</t>
-  </si>
-  <si>
-    <t>'1024233838'	,</t>
-  </si>
-  <si>
-    <t>'1025902583'	,</t>
-  </si>
-  <si>
-    <t>'1009545234'	,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'1008187998'	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">) group by accountnumber </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  order by accountnumber</t>
-  </si>
-  <si>
-    <t>wk15_Spend80_8000points</t>
-  </si>
-  <si>
-    <t>wk13_spend70_7000points</t>
-  </si>
-  <si>
-    <t>WK08_EM_60</t>
-  </si>
-  <si>
-    <t>wk07_EM_60</t>
-  </si>
-  <si>
-    <t>WK06_EM_80</t>
-  </si>
-  <si>
-    <t>WK05_EM_80</t>
-  </si>
-  <si>
-    <t>WK04_EM_70</t>
-  </si>
-  <si>
-    <t>Week30_StretchEmail_100</t>
-  </si>
-  <si>
-    <t>Week28_StretchEmail_100</t>
-  </si>
-  <si>
-    <t>Week27_StretchEmail_100</t>
-  </si>
-  <si>
-    <t>Week26_StretchEmail_90</t>
-  </si>
-  <si>
-    <t>Week25_StretchEmail_90</t>
-  </si>
-  <si>
-    <t>Week20_Ssemail_10000points</t>
-  </si>
-  <si>
-    <t>PRC_MSN_P20_OFCD_5156</t>
-  </si>
-  <si>
-    <t>PRC_MSN_P20_OFCD_3359</t>
-  </si>
-  <si>
-    <t>PRC_MSN_P20_OFCD_2468</t>
-  </si>
-  <si>
-    <t>PRC_MSN_P20_OFCD_1595</t>
-  </si>
-  <si>
-    <t>PO_201903_theBestCookies</t>
-  </si>
-  <si>
-    <t>PO_201903_royalGalaApples</t>
-  </si>
-  <si>
-    <t>PO_201903_everydayTeaBags</t>
-  </si>
-  <si>
-    <t>PO_201903_doublePoints</t>
-  </si>
-  <si>
-    <t>PO_201903_bakingPotatoes</t>
-  </si>
-  <si>
-    <t>NEW_wk37_8250_Pts_105_Week3</t>
-  </si>
-  <si>
-    <t>NEW_wk37_8250_Pts_105_Week2</t>
-  </si>
-  <si>
-    <t>NEW_wk37_8250_Pts_105_Week1</t>
-  </si>
-  <si>
-    <t>NEW_wk37_8250_Pts_105_Bonus</t>
-  </si>
-  <si>
-    <t>FO_2044_Morrisons_British_Pork_Loin_Chops_700_gr</t>
-  </si>
-  <si>
-    <t>FO_2044_McCain_Crispy_French_Fries_1.4_kg</t>
-  </si>
-  <si>
-    <t>FO_2044_Kelloggs_Corn_Flakes_720_gr</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_9000_More_Points_when_you_next_spend_120_week_Bonus</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_9000_More_Points_when_you_next_spend_120_week_4</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_9000_More_Points_when_you_next_spend_120_week_3</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_9000_More_Points_when_you_next_spend_120_week_2</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_9000_More_Points_when_you_next_spend_120_week_1</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_400More_Points_when_you_buy_Lamb</t>
-  </si>
-  <si>
-    <t>Easter_DM_2019_400More_Points_when_you_buy_Easter_Egg</t>
-  </si>
-  <si>
-    <t>collector2019_165_62500</t>
-  </si>
-  <si>
-    <t>Cat Sleeper 032</t>
-  </si>
-  <si>
-    <t>Cat Sleeper 030</t>
-  </si>
-  <si>
-    <t>AO_2044_Morrisons Shortbread Assortment</t>
-  </si>
-  <si>
-    <t>AO_2044_Morrisons Carrots</t>
-  </si>
-  <si>
-    <t>AO_2044_cadburyChocolateFreddoSelectionBox</t>
-  </si>
-  <si>
-    <t>AO_2042_morrisonsBestMincePies</t>
-  </si>
-  <si>
-    <t>AO_2042_doublePoints</t>
-  </si>
-  <si>
-    <t>AO_2042_cadburyDairyMilkAdventCalendar</t>
-  </si>
-  <si>
-    <t>8000_WYS_Week16_80</t>
-  </si>
-  <si>
-    <t>8000_WYS_80</t>
-  </si>
-  <si>
     <t xml:space="preserve">delete first hard commit even from logs </t>
   </si>
   <si>
@@ -30933,7 +30658,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31050,18 +30775,6 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD0021B"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -31101,7 +30814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -31174,42 +30887,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -31353,42 +31036,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -31471,8 +31124,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="F63:G79" totalsRowShown="0">
   <autoFilter ref="F63:G79"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Column1" dataDxfId="6"/>
-    <tableColumn id="2" name="Column2" dataDxfId="5"/>
+    <tableColumn id="1" name="Column1" dataDxfId="4"/>
+    <tableColumn id="2" name="Column2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -32523,336 +32176,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W30"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>529</v>
-      </c>
-      <c r="C9" t="s">
-        <v>570</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>571</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>572</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12" t="s">
-        <v>572</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>573</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>813</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="U14" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="V14" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="W14" s="18" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>574</v>
-      </c>
-      <c r="L15" t="s">
-        <v>820</v>
-      </c>
-      <c r="N15">
-        <v>106</v>
-      </c>
-      <c r="O15">
-        <v>285.55</v>
-      </c>
-      <c r="Q15">
-        <f>N15*O15</f>
-        <v>30268.300000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>575</v>
-      </c>
-      <c r="L16" t="s">
-        <v>821</v>
-      </c>
-      <c r="N16">
-        <v>220</v>
-      </c>
-      <c r="O16">
-        <v>224.94</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" ref="Q16:Q23" si="0">N16*O16</f>
-        <v>49486.8</v>
-      </c>
-      <c r="S16">
-        <v>220</v>
-      </c>
-      <c r="T16">
-        <v>266.2</v>
-      </c>
-      <c r="V16">
-        <f>S16*T16</f>
-        <v>58564</v>
-      </c>
-      <c r="W16">
-        <f>V16-Q16</f>
-        <v>9077.1999999999971</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f t="shared" ref="V17:V23" si="1">S17*T17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f>B30/6</f>
-        <v>171.83333333333334</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="E24">
-        <f>D23*12</f>
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f>SUM(B9:B22)</f>
-        <v>1031</v>
-      </c>
-      <c r="C30" t="s">
-        <v>578</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
-        <v>883</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -32895,7 +32218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G778"/>
   <sheetViews>
@@ -36638,7 +35961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K110"/>
   <sheetViews>
@@ -37598,7 +36921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:D9"/>
   <sheetViews>
@@ -37632,7 +36955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D11"/>
   <sheetViews>
@@ -45796,1161 +45119,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" s="59">
-        <v>1011582939</v>
-      </c>
-      <c r="H1">
-        <v>1001692094</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K1" t="str">
-        <f>CONCATENATE("'",TRIM(H1),"'")</f>
-        <v>'1001692094'</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N1" t="s">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="60">
-        <v>1012461657</v>
-      </c>
-      <c r="H2">
-        <v>1025808244</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:K21" si="0">CONCATENATE("'",TRIM(H2),"'")</f>
-        <v>'1025808244'</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="60">
-        <v>1019346230</v>
-      </c>
-      <c r="H3">
-        <v>1021318860</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" si="0"/>
-        <v>'1021318860'</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N3" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="60">
-        <v>1020488491</v>
-      </c>
-      <c r="H4">
-        <v>1026011077</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>'1026011077'</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N4" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="60">
-        <v>1012054149</v>
-      </c>
-      <c r="H5">
-        <v>1025902366</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="0"/>
-        <v>'1025902366'</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1712</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="60">
-        <v>1010125352</v>
-      </c>
-      <c r="H6">
-        <v>1021056552</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>'1021056552'</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="60">
-        <v>1001942663</v>
-      </c>
-      <c r="H7">
-        <v>1024608210</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>'1024608210'</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N7" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="60" t="s">
-        <v>1703</v>
-      </c>
-      <c r="H8">
-        <v>1025831083</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>'1025831083'</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N8" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="61">
-        <v>1013023727</v>
-      </c>
-      <c r="H9">
-        <v>1021815686</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
-        <v>'1021815686'</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N9" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="61">
-        <v>1007571214</v>
-      </c>
-      <c r="H10">
-        <v>1026000079</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>'1026000079'</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N10" t="s">
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="61">
-        <v>1009538804</v>
-      </c>
-      <c r="H11">
-        <v>1001585412</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v>'1001585412'</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N11" t="s">
-        <v>1718</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="61">
-        <v>1007729632</v>
-      </c>
-      <c r="H12">
-        <v>1014648621</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
-        <v>'1014648621'</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1719</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="61">
-        <v>1007922308</v>
-      </c>
-      <c r="H13">
-        <v>1025976348</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v>'1025976348'</v>
-      </c>
-      <c r="L13" t="s">
-        <v>1707</v>
-      </c>
-      <c r="N13" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>1721</v>
-      </c>
-      <c r="G14" s="61">
-        <v>1007616383</v>
-      </c>
-      <c r="H14">
-        <v>1025997086</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
-        <v>'1025997086'</v>
-      </c>
-      <c r="L14" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="61" t="s">
-        <v>1704</v>
-      </c>
-      <c r="H15">
-        <v>1025749118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>'1025749118'</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>1722</v>
-      </c>
-      <c r="G16" s="61">
-        <v>1012007071</v>
-      </c>
-      <c r="H16">
-        <v>1021474722</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>'1021474722'</v>
-      </c>
-      <c r="L16" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>1723</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>1705</v>
-      </c>
-      <c r="H17">
-        <v>1024609086</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>'1024609086'</v>
-      </c>
-      <c r="L17" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G18" s="61">
-        <v>1011058058</v>
-      </c>
-      <c r="H18">
-        <v>1024233838</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>'1024233838'</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>1725</v>
-      </c>
-      <c r="G19" s="61" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H19">
-        <v>1025902583</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>'1025902583'</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>1726</v>
-      </c>
-      <c r="G20" s="61">
-        <v>1010306429</v>
-      </c>
-      <c r="H20">
-        <v>1009545234</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
-        <v>'1009545234'</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>1727</v>
-      </c>
-      <c r="G21" s="61">
-        <v>1010571962</v>
-      </c>
-      <c r="H21">
-        <v>1008187998</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1707</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>'1008187998'</v>
-      </c>
-      <c r="L21" t="s">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>1745</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="uniqueValues" dxfId="4" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="G2:I51"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="72.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
-        <v>1746</v>
-      </c>
-      <c r="H2" s="62" t="b">
-        <f>NOT(ISERROR(MATCH(I2,$G$2:$G$1001,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="3" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
-        <v>1747</v>
-      </c>
-      <c r="H3" s="62" t="b">
-        <f t="shared" ref="H3:H51" si="0">NOT(ISERROR(MATCH(G3,$I$2:$I$1001,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="4" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
-        <v>1748</v>
-      </c>
-      <c r="H4" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="5" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>1748</v>
-      </c>
-      <c r="H5" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="6" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H6" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="7" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>1750</v>
-      </c>
-      <c r="H7" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="8" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>1750</v>
-      </c>
-      <c r="H8" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="9" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>1751</v>
-      </c>
-      <c r="H9" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="10" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>1752</v>
-      </c>
-      <c r="H10" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="11" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G11" t="s">
-        <v>1753</v>
-      </c>
-      <c r="H11" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1753</v>
-      </c>
-    </row>
-    <row r="12" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G12" t="s">
-        <v>1754</v>
-      </c>
-      <c r="H12" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1754</v>
-      </c>
-    </row>
-    <row r="13" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>1755</v>
-      </c>
-      <c r="H13" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1755</v>
-      </c>
-    </row>
-    <row r="14" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G14" t="s">
-        <v>1756</v>
-      </c>
-      <c r="H14" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="15" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>1757</v>
-      </c>
-      <c r="H15" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="16" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H16" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>1759</v>
-      </c>
-      <c r="H17" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>1760</v>
-      </c>
-      <c r="H18" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H19" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H20" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H21" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H22" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H23" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G24" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H24" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H25" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="26" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H26" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G27" t="s">
-        <v>1769</v>
-      </c>
-      <c r="H27" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="28" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G28" t="s">
-        <v>1770</v>
-      </c>
-      <c r="H28" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="29" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
-        <v>1771</v>
-      </c>
-      <c r="H29" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>1772</v>
-      </c>
-      <c r="H30" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>1773</v>
-      </c>
-      <c r="H31" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
-        <v>1774</v>
-      </c>
-      <c r="H32" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
-        <v>1775</v>
-      </c>
-      <c r="H33" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="34" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
-        <v>1776</v>
-      </c>
-      <c r="H34" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
-        <v>1777</v>
-      </c>
-      <c r="H35" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="36" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
-        <v>1778</v>
-      </c>
-      <c r="H36" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="37" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
-        <v>1779</v>
-      </c>
-      <c r="H37" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="38" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
-        <v>1780</v>
-      </c>
-      <c r="H38" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H39" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="40" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
-        <v>1782</v>
-      </c>
-      <c r="H40" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="41" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
-        <v>1783</v>
-      </c>
-      <c r="H41" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="42" spans="7:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
-        <v>1784</v>
-      </c>
-      <c r="H42" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
-        <v>1785</v>
-      </c>
-      <c r="H43" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
-        <v>1786</v>
-      </c>
-      <c r="H44" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H45" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
-        <v>1788</v>
-      </c>
-      <c r="H46" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
-        <v>1789</v>
-      </c>
-      <c r="H47" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
-        <v>1790</v>
-      </c>
-      <c r="H48" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
-        <v>1791</v>
-      </c>
-      <c r="H49" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
-        <v>1792</v>
-      </c>
-      <c r="H50" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="7:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
-        <v>1792</v>
-      </c>
-      <c r="H51" s="62" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="H2:H51">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47016,7 +45184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N23"/>
   <sheetViews>
@@ -47208,12 +45376,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47227,26 +45395,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1793</v>
+        <v>1703</v>
       </c>
       <c r="E1" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1796</v>
+        <v>1706</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>1795</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1797</v>
+        <v>1707</v>
       </c>
       <c r="E3" t="s">
-        <v>1798</v>
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <f>SUM(G7:G19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.25">
@@ -47473,7 +45647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D42"/>
   <sheetViews>
@@ -47979,4 +46153,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:W30"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>529</v>
+      </c>
+      <c r="C9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>571</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>572</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>573</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="W14" s="18" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>574</v>
+      </c>
+      <c r="L15" t="s">
+        <v>820</v>
+      </c>
+      <c r="N15">
+        <v>106</v>
+      </c>
+      <c r="O15">
+        <v>285.55</v>
+      </c>
+      <c r="Q15">
+        <f>N15*O15</f>
+        <v>30268.300000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>575</v>
+      </c>
+      <c r="L16" t="s">
+        <v>821</v>
+      </c>
+      <c r="N16">
+        <v>220</v>
+      </c>
+      <c r="O16">
+        <v>224.94</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ref="Q16:Q23" si="0">N16*O16</f>
+        <v>49486.8</v>
+      </c>
+      <c r="S16">
+        <v>220</v>
+      </c>
+      <c r="T16">
+        <v>266.2</v>
+      </c>
+      <c r="V16">
+        <f>S16*T16</f>
+        <v>58564</v>
+      </c>
+      <c r="W16">
+        <f>V16-Q16</f>
+        <v>9077.1999999999971</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ref="V17:V23" si="1">S17*T17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>B30/6</f>
+        <v>171.83333333333334</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>D23*12</f>
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM(B9:B22)</f>
+        <v>1031</v>
+      </c>
+      <c r="C30" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>